--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.0125028905729</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H2">
-        <v>8.0125028905729</v>
+        <v>37.261862</v>
       </c>
       <c r="I2">
-        <v>0.07987318303563874</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J2">
-        <v>0.07987318303563874</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N2">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O2">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P2">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q2">
-        <v>15.32542902295773</v>
+        <v>31.22759326358222</v>
       </c>
       <c r="R2">
-        <v>15.32542902295773</v>
+        <v>281.04833937224</v>
       </c>
       <c r="S2">
-        <v>0.009548775986508513</v>
+        <v>0.009479485353074524</v>
       </c>
       <c r="T2">
-        <v>0.009548775986508513</v>
+        <v>0.01043226855831992</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.0125028905729</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H3">
-        <v>8.0125028905729</v>
+        <v>37.261862</v>
       </c>
       <c r="I3">
-        <v>0.07987318303563874</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J3">
-        <v>0.07987318303563874</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N3">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O3">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P3">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q3">
-        <v>36.2937086520206</v>
+        <v>61.38853260575933</v>
       </c>
       <c r="R3">
-        <v>36.2937086520206</v>
+        <v>552.496793451834</v>
       </c>
       <c r="S3">
-        <v>0.02261342851274165</v>
+        <v>0.01863517597309317</v>
       </c>
       <c r="T3">
-        <v>0.02261342851274165</v>
+        <v>0.02050819777044181</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.0125028905729</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H4">
-        <v>8.0125028905729</v>
+        <v>37.261862</v>
       </c>
       <c r="I4">
-        <v>0.07987318303563874</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J4">
-        <v>0.07987318303563874</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N4">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O4">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P4">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q4">
-        <v>37.40089883952346</v>
+        <v>101.7649356214431</v>
       </c>
       <c r="R4">
-        <v>37.40089883952346</v>
+        <v>915.884420592988</v>
       </c>
       <c r="S4">
-        <v>0.02330328267989662</v>
+        <v>0.03089188489607541</v>
       </c>
       <c r="T4">
-        <v>0.02330328267989662</v>
+        <v>0.03399682867847267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.0125028905729</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H5">
-        <v>8.0125028905729</v>
+        <v>37.261862</v>
       </c>
       <c r="I5">
-        <v>0.07987318303563874</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J5">
-        <v>0.07987318303563874</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N5">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O5">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P5">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q5">
-        <v>27.17926629104189</v>
+        <v>91.6289266583411</v>
       </c>
       <c r="R5">
-        <v>27.17926629104189</v>
+        <v>824.6603399250699</v>
       </c>
       <c r="S5">
-        <v>0.01693451614973017</v>
+        <v>0.02781498595950538</v>
       </c>
       <c r="T5">
-        <v>0.01693451614973017</v>
+        <v>0.03061067058681038</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.0125028905729</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H6">
-        <v>8.0125028905729</v>
+        <v>37.261862</v>
       </c>
       <c r="I6">
-        <v>0.07987318303563874</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J6">
-        <v>0.07987318303563874</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N6">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O6">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P6">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q6">
-        <v>11.99417447153489</v>
+        <v>18.65048726723967</v>
       </c>
       <c r="R6">
-        <v>11.99417447153489</v>
+        <v>111.902923603438</v>
       </c>
       <c r="S6">
-        <v>0.007473179706761791</v>
+        <v>0.0056615640976624</v>
       </c>
       <c r="T6">
-        <v>0.007473179706761791</v>
+        <v>0.004153738656132158</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>53.5342388188646</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H7">
-        <v>53.5342388188646</v>
+        <v>172.32992</v>
       </c>
       <c r="I7">
-        <v>0.533659720844985</v>
+        <v>0.4277189525092218</v>
       </c>
       <c r="J7">
-        <v>0.533659720844985</v>
+        <v>0.4611038148683137</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N7">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O7">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P7">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q7">
-        <v>102.3943689657647</v>
+        <v>144.4224297998222</v>
       </c>
       <c r="R7">
-        <v>102.3943689657647</v>
+        <v>1299.8018681984</v>
       </c>
       <c r="S7">
-        <v>0.06379859839938679</v>
+        <v>0.04384104456552667</v>
       </c>
       <c r="T7">
-        <v>0.06379859839938679</v>
+        <v>0.04824750856717219</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>53.5342388188646</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H8">
-        <v>53.5342388188646</v>
+        <v>172.32992</v>
       </c>
       <c r="I8">
-        <v>0.533659720844985</v>
+        <v>0.4277189525092218</v>
       </c>
       <c r="J8">
-        <v>0.533659720844985</v>
+        <v>0.4611038148683137</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N8">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O8">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P8">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q8">
-        <v>242.490529255914</v>
+        <v>283.9117624574934</v>
       </c>
       <c r="R8">
-        <v>242.490529255914</v>
+        <v>2555.205862117441</v>
       </c>
       <c r="S8">
-        <v>0.1510879557920353</v>
+        <v>0.08618459229517483</v>
       </c>
       <c r="T8">
-        <v>0.1510879557920353</v>
+        <v>0.09484700687057496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>53.5342388188646</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H9">
-        <v>53.5342388188646</v>
+        <v>172.32992</v>
       </c>
       <c r="I9">
-        <v>0.533659720844985</v>
+        <v>0.4277189525092218</v>
       </c>
       <c r="J9">
-        <v>0.533659720844985</v>
+        <v>0.4611038148683137</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N9">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O9">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P9">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q9">
-        <v>249.888040960455</v>
+        <v>470.6459171162312</v>
       </c>
       <c r="R9">
-        <v>249.888040960455</v>
+        <v>4235.81325404608</v>
       </c>
       <c r="S9">
-        <v>0.1556971045485511</v>
+        <v>0.1428698343842797</v>
       </c>
       <c r="T9">
-        <v>0.1556971045485511</v>
+        <v>0.1572296834338258</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>53.5342388188646</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H10">
-        <v>53.5342388188646</v>
+        <v>172.32992</v>
       </c>
       <c r="I10">
-        <v>0.533659720844985</v>
+        <v>0.4277189525092218</v>
       </c>
       <c r="J10">
-        <v>0.533659720844985</v>
+        <v>0.4611038148683137</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N10">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O10">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P10">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q10">
-        <v>181.5938605473773</v>
+        <v>423.7685599479111</v>
       </c>
       <c r="R10">
-        <v>181.5938605473773</v>
+        <v>3813.9170395312</v>
       </c>
       <c r="S10">
-        <v>0.1131452236863722</v>
+        <v>0.1286396880865128</v>
       </c>
       <c r="T10">
-        <v>0.1131452236863722</v>
+        <v>0.1415692649329061</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>53.5342388188646</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H11">
-        <v>53.5342388188646</v>
+        <v>172.32992</v>
       </c>
       <c r="I11">
-        <v>0.533659720844985</v>
+        <v>0.4277189525092218</v>
       </c>
       <c r="J11">
-        <v>0.533659720844985</v>
+        <v>0.4611038148683137</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N11">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O11">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P11">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q11">
-        <v>80.13713185049068</v>
+        <v>86.25540448634668</v>
       </c>
       <c r="R11">
-        <v>80.13713185049068</v>
+        <v>517.5324269180801</v>
       </c>
       <c r="S11">
-        <v>0.04993083841863961</v>
+        <v>0.02618379317772777</v>
       </c>
       <c r="T11">
-        <v>0.04993083841863961</v>
+        <v>0.01921035106383472</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.53219526823085</v>
+        <v>16.62576466666667</v>
       </c>
       <c r="H12">
-        <v>5.53219526823085</v>
+        <v>49.877294</v>
       </c>
       <c r="I12">
-        <v>0.05514806687535596</v>
+        <v>0.1237943123496749</v>
       </c>
       <c r="J12">
-        <v>0.05514806687535596</v>
+        <v>0.1334568630839523</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N12">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O12">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P12">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q12">
-        <v>10.58137102504713</v>
+        <v>41.80005417120888</v>
       </c>
       <c r="R12">
-        <v>10.58137102504713</v>
+        <v>376.20048754088</v>
       </c>
       <c r="S12">
-        <v>0.006592907865544831</v>
+        <v>0.01268887416103875</v>
       </c>
       <c r="T12">
-        <v>0.006592907865544831</v>
+        <v>0.01396423308020085</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.53219526823085</v>
+        <v>16.62576466666667</v>
       </c>
       <c r="H13">
-        <v>5.53219526823085</v>
+        <v>49.877294</v>
       </c>
       <c r="I13">
-        <v>0.05514806687535596</v>
+        <v>0.1237943123496749</v>
       </c>
       <c r="J13">
-        <v>0.05514806687535596</v>
+        <v>0.1334568630839523</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N13">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O13">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P13">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q13">
-        <v>25.05882194532365</v>
+        <v>82.17232646629533</v>
       </c>
       <c r="R13">
-        <v>25.05882194532365</v>
+        <v>739.5509381966581</v>
       </c>
       <c r="S13">
-        <v>0.01561333629768226</v>
+        <v>0.02494432915756341</v>
       </c>
       <c r="T13">
-        <v>0.01561333629768226</v>
+        <v>0.02745148402960836</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.53219526823085</v>
+        <v>16.62576466666667</v>
       </c>
       <c r="H14">
-        <v>5.53219526823085</v>
+        <v>49.877294</v>
       </c>
       <c r="I14">
-        <v>0.05514806687535596</v>
+        <v>0.1237943123496749</v>
       </c>
       <c r="J14">
-        <v>0.05514806687535596</v>
+        <v>0.1334568630839523</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N14">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O14">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P14">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q14">
-        <v>25.82327624880248</v>
+        <v>136.2186251691284</v>
       </c>
       <c r="R14">
-        <v>25.82327624880248</v>
+        <v>1225.967626522156</v>
       </c>
       <c r="S14">
-        <v>0.01608964289144266</v>
+        <v>0.04135068787425902</v>
       </c>
       <c r="T14">
-        <v>0.01608964289144266</v>
+        <v>0.04550684609008034</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.53219526823085</v>
+        <v>16.62576466666667</v>
       </c>
       <c r="H15">
-        <v>5.53219526823085</v>
+        <v>49.877294</v>
       </c>
       <c r="I15">
-        <v>0.05514806687535596</v>
+        <v>0.1237943123496749</v>
       </c>
       <c r="J15">
-        <v>0.05514806687535596</v>
+        <v>0.1334568630839523</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N15">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O15">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P15">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q15">
-        <v>18.76579770675593</v>
+        <v>122.6509537779544</v>
       </c>
       <c r="R15">
-        <v>18.76579770675593</v>
+        <v>1103.85858400159</v>
       </c>
       <c r="S15">
-        <v>0.01169235773050905</v>
+        <v>0.0372320694094171</v>
       </c>
       <c r="T15">
-        <v>0.01169235773050905</v>
+        <v>0.040974265225809</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.53219526823085</v>
+        <v>16.62576466666667</v>
       </c>
       <c r="H16">
-        <v>5.53219526823085</v>
+        <v>49.877294</v>
       </c>
       <c r="I16">
-        <v>0.05514806687535596</v>
+        <v>0.1237943123496749</v>
       </c>
       <c r="J16">
-        <v>0.05514806687535596</v>
+        <v>0.1334568630839523</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N16">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O16">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P16">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q16">
-        <v>8.281321849609496</v>
+        <v>24.96482426646767</v>
       </c>
       <c r="R16">
-        <v>8.281321849609496</v>
+        <v>149.788945598806</v>
       </c>
       <c r="S16">
-        <v>0.005159822090177159</v>
+        <v>0.007578351747396634</v>
       </c>
       <c r="T16">
-        <v>0.005159822090177159</v>
+        <v>0.005560034658253755</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.45288857161591</v>
+        <v>18.64071333333333</v>
       </c>
       <c r="H17">
-        <v>4.45288857161591</v>
+        <v>55.92214000000001</v>
       </c>
       <c r="I17">
-        <v>0.04438892425691857</v>
+        <v>0.1387974830074432</v>
       </c>
       <c r="J17">
-        <v>0.04438892425691857</v>
+        <v>0.149631080253504</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N17">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O17">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P17">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q17">
-        <v>8.516992590633542</v>
+        <v>46.86598437697778</v>
       </c>
       <c r="R17">
-        <v>8.516992590633542</v>
+        <v>421.7938593928</v>
       </c>
       <c r="S17">
-        <v>0.005306660857903792</v>
+        <v>0.01422669395970022</v>
       </c>
       <c r="T17">
-        <v>0.005306660857903792</v>
+        <v>0.01565661916830579</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.45288857161591</v>
+        <v>18.64071333333333</v>
       </c>
       <c r="H18">
-        <v>4.45288857161591</v>
+        <v>55.92214000000001</v>
       </c>
       <c r="I18">
-        <v>0.04438892425691857</v>
+        <v>0.1387974830074432</v>
       </c>
       <c r="J18">
-        <v>0.04438892425691857</v>
+        <v>0.149631080253504</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N18">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O18">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P18">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q18">
-        <v>20.1699572137795</v>
+        <v>92.13114778788668</v>
       </c>
       <c r="R18">
-        <v>20.1699572137795</v>
+        <v>829.1803300909802</v>
       </c>
       <c r="S18">
-        <v>0.01256724381440327</v>
+        <v>0.02796744080293015</v>
       </c>
       <c r="T18">
-        <v>0.01256724381440327</v>
+        <v>0.03077844866867723</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.45288857161591</v>
+        <v>18.64071333333333</v>
       </c>
       <c r="H19">
-        <v>4.45288857161591</v>
+        <v>55.92214000000001</v>
       </c>
       <c r="I19">
-        <v>0.04438892425691857</v>
+        <v>0.1387974830074432</v>
       </c>
       <c r="J19">
-        <v>0.04438892425691857</v>
+        <v>0.149631080253504</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N19">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O19">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P19">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q19">
-        <v>20.78526988197677</v>
+        <v>152.7275522869289</v>
       </c>
       <c r="R19">
-        <v>20.78526988197677</v>
+        <v>1374.54797058236</v>
       </c>
       <c r="S19">
-        <v>0.01295062510973113</v>
+        <v>0.0463621574257941</v>
       </c>
       <c r="T19">
-        <v>0.01295062510973113</v>
+        <v>0.05102201851623958</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.45288857161591</v>
+        <v>18.64071333333333</v>
       </c>
       <c r="H20">
-        <v>4.45288857161591</v>
+        <v>55.92214000000001</v>
       </c>
       <c r="I20">
-        <v>0.04438892425691857</v>
+        <v>0.1387974830074432</v>
       </c>
       <c r="J20">
-        <v>0.04438892425691857</v>
+        <v>0.149631080253504</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N20">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O20">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P20">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q20">
-        <v>15.10467402073318</v>
+        <v>137.5155558419889</v>
       </c>
       <c r="R20">
-        <v>15.10467402073318</v>
+        <v>1237.6400025779</v>
       </c>
       <c r="S20">
-        <v>0.009411230730125434</v>
+        <v>0.04174438569187697</v>
       </c>
       <c r="T20">
-        <v>0.009411230730125434</v>
+        <v>0.04594011448084618</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.45288857161591</v>
+        <v>18.64071333333333</v>
       </c>
       <c r="H21">
-        <v>4.45288857161591</v>
+        <v>55.92214000000001</v>
       </c>
       <c r="I21">
-        <v>0.04438892425691857</v>
+        <v>0.1387974830074432</v>
       </c>
       <c r="J21">
-        <v>0.04438892425691857</v>
+        <v>0.149631080253504</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N21">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O21">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P21">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q21">
-        <v>6.665672781610224</v>
+        <v>27.99041980314334</v>
       </c>
       <c r="R21">
-        <v>6.665672781610224</v>
+        <v>167.94251881886</v>
       </c>
       <c r="S21">
-        <v>0.004153163744754938</v>
+        <v>0.008496805127141807</v>
       </c>
       <c r="T21">
-        <v>0.004153163744754938</v>
+        <v>0.006233879419435196</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>28.7834816170495</v>
+        <v>29.1711175</v>
       </c>
       <c r="H22">
-        <v>28.7834816170495</v>
+        <v>58.342235</v>
       </c>
       <c r="I22">
-        <v>0.2869301049871016</v>
+        <v>0.2172061558542492</v>
       </c>
       <c r="J22">
-        <v>0.2869301049871016</v>
+        <v>0.156106537544053</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N22">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O22">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P22">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q22">
-        <v>55.05385902259066</v>
+        <v>73.34124572203334</v>
       </c>
       <c r="R22">
-        <v>55.05385902259066</v>
+        <v>440.0474743322</v>
       </c>
       <c r="S22">
-        <v>0.03430226757189223</v>
+        <v>0.02226355578318115</v>
       </c>
       <c r="T22">
-        <v>0.03430226757189223</v>
+        <v>0.0163341773906149</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>28.7834816170495</v>
+        <v>29.1711175</v>
       </c>
       <c r="H23">
-        <v>28.7834816170495</v>
+        <v>58.342235</v>
       </c>
       <c r="I23">
-        <v>0.2869301049871016</v>
+        <v>0.2172061558542492</v>
       </c>
       <c r="J23">
-        <v>0.2869301049871016</v>
+        <v>0.156106537544053</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N23">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O23">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P23">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q23">
-        <v>130.3786482285177</v>
+        <v>144.1773439391075</v>
       </c>
       <c r="R23">
-        <v>130.3786482285177</v>
+        <v>865.0640636346451</v>
       </c>
       <c r="S23">
-        <v>0.08123469192888151</v>
+        <v>0.04376664601014391</v>
       </c>
       <c r="T23">
-        <v>0.08123469192888151</v>
+        <v>0.03211042147463249</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>28.7834816170495</v>
+        <v>29.1711175</v>
       </c>
       <c r="H24">
-        <v>28.7834816170495</v>
+        <v>58.342235</v>
       </c>
       <c r="I24">
-        <v>0.2869301049871016</v>
+        <v>0.2172061558542492</v>
       </c>
       <c r="J24">
-        <v>0.2869301049871016</v>
+        <v>0.156106537544053</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N24">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O24">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P24">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q24">
-        <v>134.35603068239</v>
+        <v>239.0055194552317</v>
       </c>
       <c r="R24">
-        <v>134.35603068239</v>
+        <v>1434.03311673139</v>
       </c>
       <c r="S24">
-        <v>0.08371286947339288</v>
+        <v>0.07255279975809244</v>
       </c>
       <c r="T24">
-        <v>0.08371286947339288</v>
+        <v>0.05323005511678918</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>28.7834816170495</v>
+        <v>29.1711175</v>
       </c>
       <c r="H25">
-        <v>28.7834816170495</v>
+        <v>58.342235</v>
       </c>
       <c r="I25">
-        <v>0.2869301049871016</v>
+        <v>0.2172061558542492</v>
       </c>
       <c r="J25">
-        <v>0.2869301049871016</v>
+        <v>0.156106537544053</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N25">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O25">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P25">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q25">
-        <v>97.63664641837792</v>
+        <v>215.2000497948291</v>
       </c>
       <c r="R25">
-        <v>97.63664641837792</v>
+        <v>1291.200298768975</v>
       </c>
       <c r="S25">
-        <v>0.06083421634242111</v>
+        <v>0.06532638307384492</v>
       </c>
       <c r="T25">
-        <v>0.06083421634242111</v>
+        <v>0.04792822583271011</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>28.7834816170495</v>
+        <v>29.1711175</v>
       </c>
       <c r="H26">
-        <v>28.7834816170495</v>
+        <v>58.342235</v>
       </c>
       <c r="I26">
-        <v>0.2869301049871016</v>
+        <v>0.2172061558542492</v>
       </c>
       <c r="J26">
-        <v>0.2869301049871016</v>
+        <v>0.156106537544053</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N26">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O26">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P26">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q26">
-        <v>43.08692366517506</v>
+        <v>43.80260617450375</v>
       </c>
       <c r="R26">
-        <v>43.08692366517506</v>
+        <v>175.210424698015</v>
       </c>
       <c r="S26">
-        <v>0.02684605967051392</v>
+        <v>0.01329677122898673</v>
       </c>
       <c r="T26">
-        <v>0.02684605967051392</v>
+        <v>0.00650365772930635</v>
       </c>
     </row>
   </sheetData>
